--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.27752581704351</v>
+        <v>1.877313</v>
       </c>
       <c r="H2">
-        <v>1.27752581704351</v>
+        <v>5.631939</v>
       </c>
       <c r="I2">
-        <v>0.0710264557061878</v>
+        <v>0.09253425024289272</v>
       </c>
       <c r="J2">
-        <v>0.0710264557061878</v>
+        <v>0.0925342502428927</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.21783254819986</v>
+        <v>18.98606933333333</v>
       </c>
       <c r="N2">
-        <v>3.21783254819986</v>
+        <v>56.958208</v>
       </c>
       <c r="O2">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="P2">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="Q2">
-        <v>4.110864155248226</v>
+        <v>35.642794778368</v>
       </c>
       <c r="R2">
-        <v>4.110864155248226</v>
+        <v>320.785153005312</v>
       </c>
       <c r="S2">
-        <v>0.03998324444495382</v>
+        <v>0.08140430393862022</v>
       </c>
       <c r="T2">
-        <v>0.03998324444495382</v>
+        <v>0.08140430393862021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.27752581704351</v>
+        <v>1.877313</v>
       </c>
       <c r="H3">
-        <v>1.27752581704351</v>
+        <v>5.631939</v>
       </c>
       <c r="I3">
-        <v>0.0710264557061878</v>
+        <v>0.09253425024289272</v>
       </c>
       <c r="J3">
-        <v>0.0710264557061878</v>
+        <v>0.0925342502428927</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.11465655587779</v>
+        <v>1.122490333333333</v>
       </c>
       <c r="N3">
-        <v>1.11465655587779</v>
+        <v>3.367471</v>
       </c>
       <c r="O3">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="P3">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="Q3">
-        <v>1.424002527270678</v>
+        <v>2.107265695141</v>
       </c>
       <c r="R3">
-        <v>1.424002527270678</v>
+        <v>18.965391256269</v>
       </c>
       <c r="S3">
-        <v>0.01385018793807785</v>
+        <v>0.004812767859348549</v>
       </c>
       <c r="T3">
-        <v>0.01385018793807785</v>
+        <v>0.004812767859348548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.27752581704351</v>
+        <v>1.877313</v>
       </c>
       <c r="H4">
-        <v>1.27752581704351</v>
+        <v>5.631939</v>
       </c>
       <c r="I4">
-        <v>0.0710264557061878</v>
+        <v>0.09253425024289272</v>
       </c>
       <c r="J4">
-        <v>0.0710264557061878</v>
+        <v>0.0925342502428927</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.38368636210545</v>
+        <v>1.473366666666666</v>
       </c>
       <c r="N4">
-        <v>1.38368636210545</v>
+        <v>4.4201</v>
       </c>
       <c r="O4">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="P4">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="Q4">
-        <v>1.767695050280727</v>
+        <v>2.7659703971</v>
       </c>
       <c r="R4">
-        <v>1.767695050280727</v>
+        <v>24.8937335739</v>
       </c>
       <c r="S4">
-        <v>0.01719302332315613</v>
+        <v>0.006317178444923956</v>
       </c>
       <c r="T4">
-        <v>0.01719302332315613</v>
+        <v>0.006317178444923955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.63902865706095</v>
+        <v>3.680834</v>
       </c>
       <c r="H5">
-        <v>3.63902865706095</v>
+        <v>11.042502</v>
       </c>
       <c r="I5">
-        <v>0.2023186571074084</v>
+        <v>0.1814312341407894</v>
       </c>
       <c r="J5">
-        <v>0.2023186571074084</v>
+        <v>0.1814312341407894</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.21783254819986</v>
+        <v>18.98606933333333</v>
       </c>
       <c r="N5">
-        <v>3.21783254819986</v>
+        <v>56.958208</v>
       </c>
       <c r="O5">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="P5">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="Q5">
-        <v>11.70978485652275</v>
+        <v>69.88456952849067</v>
       </c>
       <c r="R5">
-        <v>11.70978485652275</v>
+        <v>628.961125756416</v>
       </c>
       <c r="S5">
-        <v>0.1138921581046253</v>
+        <v>0.1596088290464122</v>
       </c>
       <c r="T5">
-        <v>0.1138921581046253</v>
+        <v>0.1596088290464122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.63902865706095</v>
+        <v>3.680834</v>
       </c>
       <c r="H6">
-        <v>3.63902865706095</v>
+        <v>11.042502</v>
       </c>
       <c r="I6">
-        <v>0.2023186571074084</v>
+        <v>0.1814312341407894</v>
       </c>
       <c r="J6">
-        <v>0.2023186571074084</v>
+        <v>0.1814312341407894</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.11465655587779</v>
+        <v>1.122490333333333</v>
       </c>
       <c r="N6">
-        <v>1.11465655587779</v>
+        <v>3.367471</v>
       </c>
       <c r="O6">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="P6">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="Q6">
-        <v>4.056267149620138</v>
+        <v>4.131700583604667</v>
       </c>
       <c r="R6">
-        <v>4.056267149620138</v>
+        <v>37.18530525244201</v>
       </c>
       <c r="S6">
-        <v>0.03945222095705689</v>
+        <v>0.009436359078532646</v>
       </c>
       <c r="T6">
-        <v>0.03945222095705689</v>
+        <v>0.009436359078532646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.63902865706095</v>
+        <v>3.680834</v>
       </c>
       <c r="H7">
-        <v>3.63902865706095</v>
+        <v>11.042502</v>
       </c>
       <c r="I7">
-        <v>0.2023186571074084</v>
+        <v>0.1814312341407894</v>
       </c>
       <c r="J7">
-        <v>0.2023186571074084</v>
+        <v>0.1814312341407894</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.38368636210545</v>
+        <v>1.473366666666666</v>
       </c>
       <c r="N7">
-        <v>1.38368636210545</v>
+        <v>4.4201</v>
       </c>
       <c r="O7">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="P7">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="Q7">
-        <v>5.035274324086147</v>
+        <v>5.423218121133333</v>
       </c>
       <c r="R7">
-        <v>5.035274324086147</v>
+        <v>48.8089630902</v>
       </c>
       <c r="S7">
-        <v>0.04897427804572622</v>
+        <v>0.01238604601584457</v>
       </c>
       <c r="T7">
-        <v>0.04897427804572622</v>
+        <v>0.01238604601584457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.0700647981312</v>
+        <v>14.72961666666667</v>
       </c>
       <c r="H8">
-        <v>13.0700647981312</v>
+        <v>44.18885</v>
       </c>
       <c r="I8">
-        <v>0.7266548871864038</v>
+        <v>0.7260345156163179</v>
       </c>
       <c r="J8">
-        <v>0.7266548871864038</v>
+        <v>0.7260345156163179</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.21783254819986</v>
+        <v>18.98606933333333</v>
       </c>
       <c r="N8">
-        <v>3.21783254819986</v>
+        <v>56.958208</v>
       </c>
       <c r="O8">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="P8">
-        <v>0.562934529780718</v>
+        <v>0.879720792300607</v>
       </c>
       <c r="Q8">
-        <v>42.05727991450781</v>
+        <v>279.6575232867556</v>
       </c>
       <c r="R8">
-        <v>42.05727991450781</v>
+        <v>2516.9177095808</v>
       </c>
       <c r="S8">
-        <v>0.4090591272311389</v>
+        <v>0.6387076593155746</v>
       </c>
       <c r="T8">
-        <v>0.4090591272311389</v>
+        <v>0.6387076593155746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.0700647981312</v>
+        <v>14.72961666666667</v>
       </c>
       <c r="H9">
-        <v>13.0700647981312</v>
+        <v>44.18885</v>
       </c>
       <c r="I9">
-        <v>0.7266548871864038</v>
+        <v>0.7260345156163179</v>
       </c>
       <c r="J9">
-        <v>0.7266548871864038</v>
+        <v>0.7260345156163179</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.11465655587779</v>
+        <v>1.122490333333333</v>
       </c>
       <c r="N9">
-        <v>1.11465655587779</v>
+        <v>3.367471</v>
       </c>
       <c r="O9">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="P9">
-        <v>0.1950004093597369</v>
+        <v>0.0520106646643328</v>
       </c>
       <c r="Q9">
-        <v>14.56863341298446</v>
+        <v>16.53385232203889</v>
       </c>
       <c r="R9">
-        <v>14.56863341298446</v>
+        <v>148.80467089835</v>
       </c>
       <c r="S9">
-        <v>0.1416980004646022</v>
+        <v>0.03776153772645161</v>
       </c>
       <c r="T9">
-        <v>0.1416980004646022</v>
+        <v>0.03776153772645161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.0700647981312</v>
+        <v>14.72961666666667</v>
       </c>
       <c r="H10">
-        <v>13.0700647981312</v>
+        <v>44.18885</v>
       </c>
       <c r="I10">
-        <v>0.7266548871864038</v>
+        <v>0.7260345156163179</v>
       </c>
       <c r="J10">
-        <v>0.7266548871864038</v>
+        <v>0.7260345156163179</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.38368636210545</v>
+        <v>1.473366666666666</v>
       </c>
       <c r="N10">
-        <v>1.38368636210545</v>
+        <v>4.4201</v>
       </c>
       <c r="O10">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="P10">
-        <v>0.242065060859545</v>
+        <v>0.06826854303506025</v>
       </c>
       <c r="Q10">
-        <v>18.08487041300867</v>
+        <v>21.70212620944444</v>
       </c>
       <c r="R10">
-        <v>18.08487041300867</v>
+        <v>195.319135885</v>
       </c>
       <c r="S10">
-        <v>0.1758977594906626</v>
+        <v>0.04956531857429172</v>
       </c>
       <c r="T10">
-        <v>0.1758977594906626</v>
+        <v>0.04956531857429172</v>
       </c>
     </row>
   </sheetData>
